--- a/SeleniumFinalAssigment/TestData/TestHotelData.xlsx
+++ b/SeleniumFinalAssigment/TestData/TestHotelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deves\git\devesh-selenium-attra\SeleniumFinalAssigment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD43CB8-DC05-44AE-8268-2920B0C1BF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3286BE1E-EEBC-4FC4-80AA-696F6CD67492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4476" yWindow="528" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedData" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>Kausani</t>
-  </si>
-  <si>
     <t>Rooms &amp; Guests</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>ExpectedData</t>
+  </si>
+  <si>
+    <t>16 Nov’20 , Monday</t>
+  </si>
+  <si>
+    <t>23 Nov’20 , Monday</t>
+  </si>
+  <si>
+    <t>7 NightS</t>
   </si>
 </sst>
 </file>
@@ -429,57 +435,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.66796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="19.0625" collapsed="true"/>
     <col min="2" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -492,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A79537-8442-4473-BE1F-B782D521818D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,27 +514,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6">
-        <v>44028</v>
+        <v>44151</v>
       </c>
       <c r="D2" s="6">
-        <v>44033</v>
+        <v>44158</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumFinalAssigment/TestData/TestHotelData.xlsx
+++ b/SeleniumFinalAssigment/TestData/TestHotelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deves\git\devesh-selenium-attra\SeleniumFinalAssigment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3286BE1E-EEBC-4FC4-80AA-696F6CD67492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D457756D-7774-45F2-9AAE-0D7E61C77CAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>url</t>
   </si>
@@ -63,15 +63,6 @@
     <t>ToDate</t>
   </si>
   <si>
-    <t>16 Jul’20 , Thursday</t>
-  </si>
-  <si>
-    <t>21 Jul’20 , Tuesday</t>
-  </si>
-  <si>
-    <t>5 NightS</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
@@ -85,6 +76,12 @@
   </si>
   <si>
     <t>7 NightS</t>
+  </si>
+  <si>
+    <t>16 Mar’21 , Tuesday</t>
+  </si>
+  <si>
+    <t>23 Mar’21 , Tuesday</t>
   </si>
 </sst>
 </file>
@@ -439,18 +436,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="19.0625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="19.1796875" collapsed="true"/>
     <col min="2" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -465,7 +462,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -499,7 +496,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6">
-        <v>44151</v>
+        <v>44271</v>
       </c>
       <c r="D2" s="6">
-        <v>44158</v>
+        <v>44278</v>
       </c>
     </row>
   </sheetData>
@@ -543,12 +540,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,15 +678,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15E68B14-5259-4E98-873A-4A3563A42B21}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA6F7BAA-C3CA-433E-903A-E02B871E5517}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -717,11 +716,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA6F7BAA-C3CA-433E-903A-E02B871E5517}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15E68B14-5259-4E98-873A-4A3563A42B21}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>